--- a/Web/pages/test.xlsx
+++ b/Web/pages/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.62185945855014</v>
+        <v>46.03789465941463</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -488,14 +488,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F2" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://decrypt.co/209640/cantor-fitzgerald-ceo-tether-bullish-bitcoin-halving-etf" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.56165577331036</v>
+        <v>55.94474003542963</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -517,14 +517,14 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F3" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.marketwatch.com/story/tesla-to-recall-more-than-2-million-vehicles-due-to-issues-with-autopilot-control-f9abbf54" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36221173/stocks-hold-steady-yields-decline-as-fed-meeting-looms-whats-driving-markets-wednesday" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.13319982254929</v>
+        <v>48.62185945855014</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,14 +546,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F4" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/general/23/12/36219590/elon-musk-mocked-on-social-media-over-his-triggered-reaction-to-teslas-going-rogue-in-the-post-apoca" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.1300196209062</v>
+        <v>63.528729249397</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,14 +575,14 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F5" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-flat-ahead-of-fed-magnificent-seven-mixed-as-tesla-falls/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.marketwatch.com/story/tesla-to-recall-more-than-2-million-vehicles-due-to-issues-with-autopilot-control-f9abbf54" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.07021379966555</v>
+        <v>57.13319982254929</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -604,14 +604,14 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F6" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36218054/teslas-swedish-struggle-rises-union-reportedly-halts-waste-collection-amid-rally-for-employee-ri" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/general/23/12/36219590/elon-musk-mocked-on-social-media-over-his-triggered-reaction-to-teslas-going-rogue-in-the-post-apoca" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F7" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.investors.com/research/panw-stock-crwd-among-list-of-24-stocks-to-watch-including-fellow-ai-stocks-dropbox-mongodb/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-flat-ahead-of-fed-magnificent-seven-mixed-as-tesla-falls/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.93657779060855</v>
+        <v>58.07021379966555</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,14 +662,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F8" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/23/12/36218324/wall-streets-fear-gauge-lowest-since-november-2019-ahead-of-the-fed-ppi-better-than-consensus" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36218054/teslas-swedish-struggle-rises-union-reportedly-halts-waste-collection-amid-rally-for-employee-ri" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.67133353947165</v>
+        <v>47.1300196209062</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -691,14 +691,14 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F9" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/magnificent-seven-stocks-crushed-wall-street-2024/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.investors.com/research/panw-stock-crwd-among-list-of-24-stocks-to-watch-including-fellow-ai-stocks-dropbox-mongodb/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.60313054646907</v>
+        <v>44.93657779060855</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -720,14 +720,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F10" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/trading-ideas/23/12/36217802/market-clubhouse-morning-memo-december-13th-2023-trade-strategy-for-spy-qqq-aapl-msft-tsla-nvda-met" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/23/12/36218324/wall-streets-fear-gauge-lowest-since-november-2019-ahead-of-the-fed-ppi-better-than-consensus" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.62185945855014</v>
+        <v>43.7378453303274</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -749,14 +749,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F11" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/magnificent-seven-stocks-crushed-wall-street-2024/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.11849039647425</v>
+        <v>45.60313054646907</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -778,14 +778,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F12" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/tesla-stock-buy-sell-or-hold-for-2024-and-beyond/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/trading-ideas/23/12/36217802/market-clubhouse-morning-memo-december-13th-2023-trade-strategy-for-spy-qqq-aapl-msft-tsla-nvda-met" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.05423925982711</v>
+        <v>48.62185945855014</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -807,14 +807,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F13" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.cnbc.com/2023/12/13/tesla-software-fix-rolls-out-after-regulators-recall-2-million-cars-over-autopilot-defect.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.12133610929784</v>
+        <v>65.00377830352909</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -836,14 +836,14 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F14" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.businessinsider.com/ford-ceo-says-video-cybertruck-stuck-towed-not-paid-advertisement-2023-12" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.72435834432903</v>
+        <v>56.19560599429514</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -865,14 +865,14 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F15" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36215932/growth-stocks-outpace-value-by-10-as-2023-nears-end-will-the-trend-continue" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/tesla-stock-buy-sell-or-hold-for-2024-and-beyond/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.62185945855014</v>
+        <v>51.05423925982711</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -894,14 +894,14 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F16" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.cnbc.com/2023/12/13/tesla-software-fix-rolls-out-after-regulators-recall-2-million-cars-over-autopilot-defect.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.55425456205154</v>
+        <v>56.12133610929784</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F17" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/cryptocurrency/23/12/36214367/dogecoin-killer-shiba-inu-supply-shrinks-on-exchanges-new-poll-shows-trump-narrowly-leadin" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51.24461308755611</v>
+        <v>34.72435834432903</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -952,14 +952,14 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F18" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/can-tesla-stock-reach-300-in-2024/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36215932/growth-stocks-outpace-value-by-10-as-2023-nears-end-will-the-trend-continue" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.1300196209062</v>
+        <v>48.62185945855014</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F19" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.investors.com/news/tesla-stock-falls-on-model-3-tax-credit-loss-credit-loss-market-reaction-to-optimus-update/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.1300196209062</v>
+        <v>46.55425456205154</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1010,14 +1010,14 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F20" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-key-inflation-data-fed-decision-powell-up-next/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/cryptocurrency/23/12/36214367/dogecoin-killer-shiba-inu-supply-shrinks-on-exchanges-new-poll-shows-trump-narrowly-leadin" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.88776138214975</v>
+        <v>51.19783798574781</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1039,14 +1039,14 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F21" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.forbes.com/sites/siladityaray/2023/12/13/tesla-recalls-more-than-2-million-cars-in-us-to-fix-autopilot-flaw/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/can-tesla-stock-reach-300-in-2024/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.62185945855014</v>
+        <v>47.1300196209062</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1068,14 +1068,14 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F22" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.investors.com/news/tesla-stock-falls-on-model-3-tax-credit-loss-credit-loss-market-reaction-to-optimus-update/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.62185945855014</v>
+        <v>47.1300196209062</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1097,14 +1097,14 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F23" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-key-inflation-data-fed-decision-powell-up-next/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.32879026543713</v>
+        <v>55.88776138214975</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1126,14 +1126,14 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F24" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.cnbc.com/2023/12/13/why-the-cybertruck-is-so-hard-to-manufacture.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.forbes.com/sites/siladityaray/2023/12/13/tesla-recalls-more-than-2-million-cars-in-us-to-fix-autopilot-flaw/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.63160941727068</v>
+        <v>48.62185945855014</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1155,14 +1155,14 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F25" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/swedish-labour-union-stop-collecting-tesla-waste-sweden-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.08999773814575</v>
+        <v>48.62185945855014</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F26" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/earnings/23/12/36213646/s-p-500-nasdaq-set-for-modestly-higher-open-as-all-eyes-turn-to-feds-decision" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.wsj.com/business/autos/tesla-recalls-more-than-two-million-vehicles-over-autopilot-safety-concerns-274eb6e6" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.31501870042901</v>
+        <v>46.32879026543713</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1213,14 +1213,14 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F27" t="n">
-        <v>230.9100036621094</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/where-will-tesla-be-in-10-years/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.cnbc.com/2023/12/13/why-the-cybertruck-is-so-hard-to-manufacture.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.94338366665603</v>
+        <v>49.63160941727068</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>230.9111938476562</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F28" t="n">
-        <v>230.9111938476562</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>&lt;a href="https://moneymorning.com/2023/12/13/they-say-its-hard-to-catch-lightning-in-a-bottle/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/swedish-labour-union-stop-collecting-tesla-waste-sweden-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.20959423396372</v>
+        <v>55.08999773814575</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1271,14 +1271,14 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F29" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.zacks.com/stock/news/2197168/3-tech-stocks-that-have-crushed-magnificent-seven-in-2023" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/earnings/23/12/36213646/s-p-500-nasdaq-set-for-modestly-higher-open-as-all-eyes-turn-to-feds-decision" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45.04126499915284</v>
+        <v>54.29878591180552</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1300,14 +1300,14 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F30" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.marketwatch.com/story/magnificent-seven-up-for-another-bull-run-what-to-expect-from-technology-stocks-in-2024-966b2d8b" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/where-will-tesla-be-in-10-years/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.27027571546618</v>
+        <v>61.94338366665603</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -1329,14 +1329,14 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F31" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36212939/bwh-hotels-teams-up-with-tesla-to-offer-ev-charging-stations" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://moneymorning.com/2023/12/13/they-say-its-hard-to-catch-lightning-in-a-bottle/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.55617824707552</v>
+        <v>49.20959423396372</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F32" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/want-to-invest-in-the-magnificent-seven-buy-this-t/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.zacks.com/stock/news/2197168/3-tech-stocks-that-have-crushed-magnificent-seven-in-2023" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.12133610929784</v>
+        <v>45.3037494640735</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1387,14 +1387,14 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F33" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>&lt;a href="https://edition.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.marketwatch.com/story/magnificent-seven-up-for-another-bull-run-what-to-expect-from-technology-stocks-in-2024-966b2d8b" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.12133610929784</v>
+        <v>56.27027571546618</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -1416,14 +1416,14 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F34" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>&lt;a href="https://us.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36212939/bwh-hotels-teams-up-with-tesla-to-offer-ev-charging-stations" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.53464699856431</v>
+        <v>43.45160637569231</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1445,14 +1445,14 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F35" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36212368/tesla-stock-in-reverse-gear-premarket-whats-going-on" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.fool.com/investing/2023/12/13/want-to-invest-in-the-magnificent-seven-buy-this-t/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.63160941727068</v>
+        <v>56.12133610929784</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1474,14 +1474,14 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F36" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/tesla-update-software-autopilot-control-issue-2-mln-vehicles-nhtsa-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://edition.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.1300196209062</v>
+        <v>56.12133610929784</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1503,14 +1503,14 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F37" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-fed-rate-shift-seen-tesla-model-3-variants-to-lose-7500-tax-credit/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://us.cnn.com/2023/12/13/tech/tesla-recall-autopilot/index.html" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>61.78738121866429</v>
+        <v>51.53464699856431</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1532,14 +1532,14 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F38" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36212289/tesla-issues-massive-recall-of-over-2m-vehicles-over-autosteer-concerns" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36212368/tesla-stock-in-reverse-gear-premarket-whats-going-on" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63.27218219123831</v>
+        <v>49.63160941727068</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F39" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>&lt;a href="https://apnews.com/article/tesla-autopilot-recall-driver-monitoring-system-8060508627a34e6af889feca46eb3002" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/tesla-update-software-autopilot-control-issue-2-mln-vehicles-nhtsa-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.20959423396372</v>
+        <v>47.1300196209062</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1590,14 +1590,14 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F40" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.zacks.com/stock/news/2197121/3-consumer-discretionary-funds-to-buy-in-peak-holiday-season" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.investors.com/market-trend/stock-market-today/dow-jones-futures-fed-rate-shift-seen-tesla-model-3-variants-to-lose-7500-tax-credit/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45.12373270905425</v>
+        <v>61.78738121866429</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1619,14 +1619,14 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F41" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.businessinsider.com/company-towns-facebook-google-tesla-elon-musk-housing-real-estate-2023-12" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36212289/tesla-issues-massive-recall-of-over-2m-vehicles-over-autosteer-concerns" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.86867355075416</v>
+        <v>63.27218219123831</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1648,14 +1648,14 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F42" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/analyst-ratings/analyst-color/23/12/36212052/tesla-fsd-duel-bull-ross-gerber-hails-it-as-life-saving-tech-bear-gordon-johnson-te" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://apnews.com/article/tesla-autopilot-recall-driver-monitoring-system-8060508627a34e6af889feca46eb3002" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.10567792924952</v>
+        <v>49.20959423396372</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1677,14 +1677,14 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F43" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36211507/gms-infotainment-product-head-reveals-main-reason-behind-dropping-apple-carplay-android-auto" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.zacks.com/stock/news/2197121/3-consumer-discretionary-funds-to-buy-in-peak-holiday-season" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.20959423396372</v>
+        <v>45.12373270905425</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F44" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>&lt;a href="https://cointelegraph.com/news/tesla-humanoid-robot-now-30-faster-22-pounds-lighter" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.businessinsider.com/company-towns-facebook-google-tesla-elon-musk-housing-real-estate-2023-12" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.63160941727068</v>
+        <v>61.86867355075416</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F45" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/tesla-lose-7500-consumer-tax-credits-some-model-3-vehicles-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/analyst-ratings/analyst-color/23/12/36212052/tesla-fsd-duel-bull-ross-gerber-hails-it-as-life-saving-tech-bear-gordon-johnson-te" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.56707250115326</v>
+        <v>62.10567792924952</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1764,14 +1764,14 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F46" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210625/not-advertising-ford-ceo-jim-farley-swears-video-of-super-duty-rescuing-tesla-cybertruck-out-of-snow" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36211507/gms-infotainment-product-head-reveals-main-reason-behind-dropping-apple-carplay-android-auto" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49.63160941727068</v>
+        <v>49.20959423396372</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1793,14 +1793,14 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F47" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/indonesia-relaxes-tax-rules-ev-imports-attract-investment-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://cointelegraph.com/news/tesla-humanoid-robot-now-30-faster-22-pounds-lighter" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1811,10 +1811,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>57.71991200715156</v>
+        <v>49.63160941727068</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1822,14 +1822,14 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F48" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210150/tesla-receives-land-use-permits-for-gigafactory-in-mexicos-nueva-leon" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/tesla-lose-7500-consumer-tax-credits-some-model-3-vehicles-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>49.0867290316166</v>
+        <v>60.56707250115326</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1851,14 +1851,14 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F49" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210136/teslas-model-3-hit-by-tax-credit-cut-7-500-federal-tax-benefits-end-for-rear-wheel-drive-and-long-ra" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210625/not-advertising-ford-ceo-jim-farley-swears-video-of-super-duty-rescuing-tesla-cybertruck-out-of-snow" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>54.89806391653725</v>
+        <v>49.63160941727068</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1880,14 +1880,14 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F50" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36209983/watch-teslas-next-gen-optimus-has-new-hands-capable-enough-to-handle-delicate-objects-like-eggs" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.reuters.com/business/autos-transportation/indonesia-relaxes-tax-rules-ev-imports-attract-investment-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>59.86408426516219</v>
+        <v>57.71991200715156</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1909,14 +1909,14 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F51" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/news/23/12/36209790/tesla-responds-to-safety-worries-over-cybertrucks-design-says-size-doesnt-matter-when-it-comes-to-cr" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210150/tesla-receives-land-use-permits-for-gigafactory-in-mexicos-nueva-leon" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>61.63505144780093</v>
+        <v>49.0867290316166</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1938,14 +1938,14 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="F52" t="n">
-        <v>230.9111938476562</v>
+        <v>230.7350006103516</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36209556/aditxt-occidental-petroleum-cava-group-adobe-tesla-why-these-5-stocks-are-on-investors-radars-to" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36210136/teslas-model-3-hit-by-tax-credit-cut-7-500-federal-tax-benefits-end-for-rear-wheel-drive-and-long-ra" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -1956,23 +1956,110 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>54.89806391653725</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="F53" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36209983/watch-teslas-next-gen-optimus-has-new-hands-capable-enough-to-handle-delicate-objects-like-eggs" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>59.86408426516219</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="F54" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.benzinga.com/news/23/12/36209790/tesla-responds-to-safety-worries-over-cybertrucks-design-says-size-doesnt-matter-when-it-comes-to-cr" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>61.63505144780093</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="F55" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.benzinga.com/markets/equities/23/12/36209556/aditxt-occidental-petroleum-cava-group-adobe-tesla-why-these-5-stocks-are-on-investors-radars-to" target="_blank"&gt;Open Article&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>49.63160941727068</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>230.9111938476562</v>
-      </c>
-      <c r="F53" t="n">
-        <v>230.9111938476562</v>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="F56" t="n">
+        <v>230.7350006103516</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>&lt;a href="https://www.reuters.com/business/autos-transportation/mexico-gives-tesla-land-use-permits-gigafactory-says-state-government-2023-12-13/" target="_blank"&gt;Open Article&lt;/a&gt;</t>
         </is>
